--- a/Storage/B_visualization_timeout.xlsx
+++ b/Storage/B_visualization_timeout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaul/Documents/BlockchainTest/Storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40930972-A840-4542-804A-EE70804376B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A49FD13-0832-2141-A1EB-B3A30AA85937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{48C39ACA-1444-E34E-8EEF-7B627AA91503}"/>
   </bookViews>
@@ -34,31 +34,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>ce10f70ed926adca2d51092f061a0ace21e7640a2742e9170cab6689e1821278</t>
+    <t>Node 1</t>
   </si>
   <si>
-    <t>a03b591b3897eb9fa344b9de4a0a1b16cbeec35ae47a6b3078c1b6b8e5e43ede</t>
+    <t>Node 2</t>
   </si>
   <si>
-    <t>7489521ac686e8b8f9723a1ea391cd450a49bface3cfe273d4b3f5bb5b31fab8</t>
+    <t>Node 3</t>
   </si>
   <si>
-    <t>cf72e60e66bdb3135a87c439f7907696d5388b9aaea0ba60951b48519e1f098b</t>
+    <t>Node 4</t>
   </si>
   <si>
-    <t>0bd6e00d30c7e4bc928bd7612914249d5af1b4dfa192d9b26ccc91c56fac3125</t>
+    <t>Node 5</t>
+  </si>
+  <si>
+    <t>Node 6</t>
+  </si>
+  <si>
+    <t>Node 7</t>
+  </si>
+  <si>
+    <t>Node 8</t>
+  </si>
+  <si>
+    <t>Node 9</t>
+  </si>
+  <si>
+    <t>Node 10</t>
+  </si>
+  <si>
+    <t>Node 11</t>
+  </si>
+  <si>
+    <t>Node 12</t>
+  </si>
+  <si>
+    <t>Node 13</t>
+  </si>
+  <si>
+    <t>Node 14</t>
+  </si>
+  <si>
+    <t>Node 15</t>
+  </si>
+  <si>
+    <t>Node 16</t>
+  </si>
+  <si>
+    <t>Node 17</t>
+  </si>
+  <si>
+    <t>Node 18</t>
+  </si>
+  <si>
+    <t>Node 19</t>
+  </si>
+  <si>
+    <t>Node 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +117,12 @@
       <color rgb="FFA8C023"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,6 +180,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Timeout Rate (Faulty Nodes: 5, 11, &amp; 17)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -167,6 +248,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -179,12 +271,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -192,19 +404,109 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,6 +521,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -231,12 +544,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -250,13 +683,103 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,6 +794,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -283,12 +817,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -302,13 +956,103 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,6 +1067,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -335,12 +1090,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -348,19 +1223,109 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,6 +1340,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -387,12 +1363,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$F$2:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -406,13 +1502,103 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,6 +1607,4135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-048B-D145-BCA1-5E5D55E79069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-048B-D145-BCA1-5E5D55E79069}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,6 +5758,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -460,7 +5776,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1185,16 +6501,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1519,15 +6835,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0D3794-2C4D-E349-9268-7F1DE3306A0D}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,8 +6862,53 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1566,8 +6927,53 @@
       <c r="F2">
         <v>20</v>
       </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1586,13 +6992,58 @@
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -1601,18 +7052,63 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>21</v>
+      </c>
+      <c r="T4">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -1621,73 +7117,2204 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>21</v>
+      </c>
+      <c r="P5">
+        <v>21</v>
+      </c>
+      <c r="Q5">
+        <v>21</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>22</v>
+      </c>
+      <c r="T5">
+        <v>22</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
         <v>22</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>22</v>
+      </c>
+      <c r="P6">
+        <v>21</v>
+      </c>
+      <c r="Q6">
+        <v>22</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>22</v>
+      </c>
+      <c r="T6">
+        <v>22</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>22</v>
+      </c>
+      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="Q7">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <v>23</v>
+      </c>
+      <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>23</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>24</v>
+      </c>
+      <c r="T8">
+        <v>24</v>
+      </c>
+      <c r="U8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="E9">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <v>21</v>
+      </c>
+      <c r="Q9">
         <v>24</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>25</v>
+      </c>
+      <c r="T9">
+        <v>25</v>
+      </c>
+      <c r="U9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>23</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>21</v>
+      </c>
+      <c r="S10">
+        <v>26</v>
+      </c>
+      <c r="T10">
+        <v>25</v>
+      </c>
+      <c r="U10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>26</v>
+      </c>
+      <c r="T11">
+        <v>25</v>
+      </c>
+      <c r="U11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>22</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>26</v>
+      </c>
+      <c r="T12">
+        <v>25</v>
+      </c>
+      <c r="U12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>23</v>
+      </c>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <v>26</v>
+      </c>
+      <c r="U13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>23</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>27</v>
+      </c>
+      <c r="T14">
+        <v>27</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>27</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>27</v>
+      </c>
+      <c r="T15">
+        <v>28</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>26</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>27</v>
+      </c>
+      <c r="T16">
+        <v>28</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>28</v>
+      </c>
+      <c r="T17">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <v>27</v>
+      </c>
+      <c r="Q18">
+        <v>29</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>28</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>28</v>
+      </c>
+      <c r="O19">
+        <v>27</v>
+      </c>
+      <c r="P19">
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>28</v>
+      </c>
+      <c r="T19">
+        <v>31</v>
+      </c>
+      <c r="U19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>33</v>
+      </c>
+      <c r="K20">
+        <v>29</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <v>27</v>
+      </c>
+      <c r="P20">
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>28</v>
+      </c>
+      <c r="T20">
+        <v>32</v>
+      </c>
+      <c r="U20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>29</v>
+      </c>
+      <c r="T21">
+        <v>33</v>
+      </c>
+      <c r="U21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>29</v>
+      </c>
+      <c r="O22">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>30</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>30</v>
+      </c>
+      <c r="T22">
+        <v>33</v>
+      </c>
+      <c r="U22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>27</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>31</v>
+      </c>
+      <c r="Q23">
+        <v>33</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>31</v>
+      </c>
+      <c r="T23">
+        <v>34</v>
+      </c>
+      <c r="U23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>31</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>30</v>
+      </c>
+      <c r="P24">
+        <v>31</v>
+      </c>
+      <c r="Q24">
+        <v>34</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>34</v>
+      </c>
+      <c r="U24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>28</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="P25">
+        <v>31</v>
+      </c>
+      <c r="Q25">
+        <v>34</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>31</v>
+      </c>
+      <c r="T25">
+        <v>35</v>
+      </c>
+      <c r="U25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>31</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>32</v>
+      </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>31</v>
+      </c>
+      <c r="T26">
+        <v>36</v>
+      </c>
+      <c r="U26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>32</v>
+      </c>
+      <c r="O27">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <v>33</v>
+      </c>
+      <c r="Q27">
+        <v>36</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>32</v>
+      </c>
+      <c r="T27">
+        <v>37</v>
+      </c>
+      <c r="U27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>31</v>
+      </c>
+      <c r="P28">
+        <v>33</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>33</v>
+      </c>
+      <c r="T28">
+        <v>37</v>
+      </c>
+      <c r="U28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29">
+        <v>32</v>
+      </c>
+      <c r="N29">
+        <v>32</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <v>34</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>33</v>
+      </c>
+      <c r="T29">
+        <v>38</v>
+      </c>
+      <c r="U29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>36</v>
+      </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>33</v>
+      </c>
+      <c r="O30">
+        <v>32</v>
+      </c>
+      <c r="P30">
+        <v>34</v>
+      </c>
+      <c r="Q30">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>34</v>
+      </c>
+      <c r="T30">
+        <v>38</v>
+      </c>
+      <c r="U30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>33</v>
+      </c>
+      <c r="O31">
+        <v>33</v>
+      </c>
+      <c r="P31">
+        <v>34</v>
+      </c>
+      <c r="Q31">
+        <v>37</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>35</v>
+      </c>
+      <c r="T31">
+        <v>39</v>
+      </c>
+      <c r="U31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>39</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>37</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>39</v>
+      </c>
+      <c r="K32">
+        <v>33</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>34</v>
+      </c>
+      <c r="O32">
+        <v>33</v>
+      </c>
+      <c r="P32">
+        <v>35</v>
+      </c>
+      <c r="Q32">
+        <v>37</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>35</v>
+      </c>
+      <c r="T32">
+        <v>40</v>
+      </c>
+      <c r="U32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>39</v>
+      </c>
+      <c r="K33">
+        <v>34</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>34</v>
+      </c>
+      <c r="O33">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>35</v>
+      </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>35</v>
+      </c>
+      <c r="T33">
+        <v>41</v>
+      </c>
+      <c r="U33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>31</v>
+      </c>
+      <c r="H34">
+        <v>39</v>
+      </c>
+      <c r="I34">
+        <v>39</v>
+      </c>
+      <c r="J34">
+        <v>39</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>35</v>
+      </c>
+      <c r="O34">
+        <v>35</v>
+      </c>
+      <c r="P34">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <v>38</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>35</v>
+      </c>
+      <c r="T34">
+        <v>41</v>
+      </c>
+      <c r="U34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>39</v>
+      </c>
+      <c r="J35">
+        <v>39</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="O35">
+        <v>36</v>
+      </c>
+      <c r="P35">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>36</v>
+      </c>
+      <c r="T35">
+        <v>42</v>
+      </c>
+      <c r="U35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>39</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>36</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <v>37</v>
+      </c>
+      <c r="P36">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>38</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>36</v>
+      </c>
+      <c r="T36">
+        <v>43</v>
+      </c>
+      <c r="U36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <v>41</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37">
+        <v>13</v>
+      </c>
+      <c r="M37">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>38</v>
+      </c>
+      <c r="P37">
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <v>39</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>37</v>
+      </c>
+      <c r="T37">
+        <v>43</v>
+      </c>
+      <c r="U37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38">
+        <v>41</v>
+      </c>
+      <c r="I38">
+        <v>40</v>
+      </c>
+      <c r="J38">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>39</v>
+      </c>
+      <c r="P38">
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>38</v>
+      </c>
+      <c r="T38">
+        <v>44</v>
+      </c>
+      <c r="U38">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Storage/B_visualization_timeout.xlsx
+++ b/Storage/B_visualization_timeout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaul/Documents/BlockchainTest/Storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A49FD13-0832-2141-A1EB-B3A30AA85937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DBF97F-EF75-0541-A16B-C0A01A3F6178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{48C39ACA-1444-E34E-8EEF-7B627AA91503}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{48C39ACA-1444-E34E-8EEF-7B627AA91503}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5758,6 +5758,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5776,7 +5831,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5823,6 +5878,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>UtilityToken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Balance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6838,7 +6953,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
